--- a/data_year/zb/公共管理、社会保障及其他/人民检察院审查批准、决定逮捕犯罪嫌疑人和提起公诉被告人情况/人民检察院批捕、决定逮捕人数.xlsx
+++ b/data_year/zb/公共管理、社会保障及其他/人民检察院审查批准、决定逮捕犯罪嫌疑人和提起公诉被告人情况/人民检察院批捕、决定逮捕人数.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N22"/>
+  <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -503,903 +503,479 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>715833</v>
+        <v>931494</v>
       </c>
       <c r="C2" t="n">
-        <v>153875</v>
+        <v>186683</v>
       </c>
       <c r="D2" t="n">
-        <v>374098</v>
+        <v>404584</v>
       </c>
       <c r="E2" t="n">
-        <v>696265</v>
-      </c>
-      <c r="F2" t="n">
-        <v>8</v>
-      </c>
+        <v>916209</v>
+      </c>
+      <c r="F2" t="inlineStr"/>
       <c r="G2" t="n">
-        <v>38182</v>
+        <v>57563</v>
       </c>
       <c r="H2" t="n">
-        <v>690</v>
+        <v>1045</v>
       </c>
       <c r="I2" t="n">
         <v>234</v>
       </c>
       <c r="J2" t="n">
-        <v>101512</v>
+        <v>228568</v>
       </c>
       <c r="K2" t="n">
-        <v>19568</v>
+        <v>15285</v>
       </c>
       <c r="L2" t="n">
-        <v>1513</v>
+        <v>1650</v>
       </c>
       <c r="M2" t="n">
-        <v>27666</v>
+        <v>37532</v>
       </c>
       <c r="N2" t="n">
-        <v>18055</v>
+        <v>13635</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>841845</v>
+        <v>923510</v>
       </c>
       <c r="C3" t="n">
-        <v>164471</v>
+        <v>186441</v>
       </c>
       <c r="D3" t="n">
-        <v>434322</v>
+        <v>394706</v>
       </c>
       <c r="E3" t="n">
-        <v>823167</v>
+        <v>908756</v>
       </c>
       <c r="F3" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G3" t="n">
-        <v>55638</v>
+        <v>59004</v>
       </c>
       <c r="H3" t="n">
-        <v>725</v>
+        <v>930</v>
       </c>
       <c r="I3" t="n">
-        <v>387</v>
+        <v>234</v>
       </c>
       <c r="J3" t="n">
-        <v>141614</v>
+        <v>226834</v>
       </c>
       <c r="K3" t="n">
-        <v>18678</v>
+        <v>14754</v>
       </c>
       <c r="L3" t="n">
-        <v>1555</v>
+        <v>1652</v>
       </c>
       <c r="M3" t="n">
-        <v>26002</v>
+        <v>40604</v>
       </c>
       <c r="N3" t="n">
-        <v>17123</v>
+        <v>13102</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>782060</v>
+        <v>986056</v>
       </c>
       <c r="C4" t="n">
-        <v>151537</v>
+        <v>177052</v>
       </c>
       <c r="D4" t="n">
-        <v>423830</v>
+        <v>422617</v>
       </c>
       <c r="E4" t="n">
-        <v>765899</v>
+        <v>969905</v>
       </c>
       <c r="F4" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G4" t="n">
-        <v>45721</v>
+        <v>56931</v>
       </c>
       <c r="H4" t="n">
-        <v>686</v>
+        <v>1105</v>
       </c>
       <c r="I4" t="n">
-        <v>233</v>
+        <v>276</v>
       </c>
       <c r="J4" t="n">
-        <v>122096</v>
+        <v>252199</v>
       </c>
       <c r="K4" t="n">
-        <v>16161</v>
+        <v>16151</v>
       </c>
       <c r="L4" t="n">
-        <v>1175</v>
+        <v>1820</v>
       </c>
       <c r="M4" t="n">
-        <v>21787</v>
+        <v>59724</v>
       </c>
       <c r="N4" t="n">
-        <v>14986</v>
+        <v>14331</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>764776</v>
+        <v>896403</v>
       </c>
       <c r="C5" t="n">
-        <v>152165</v>
+        <v>161807</v>
       </c>
       <c r="D5" t="n">
-        <v>407782</v>
-      </c>
-      <c r="E5" t="n">
-        <v>748756</v>
-      </c>
+        <v>360344</v>
+      </c>
+      <c r="E5" t="inlineStr"/>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G5" t="n">
-        <v>46506</v>
-      </c>
-      <c r="H5" t="n">
-        <v>336</v>
-      </c>
+        <v>51042</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="n">
-        <v>216</v>
+        <v>274</v>
       </c>
       <c r="J5" t="n">
-        <v>122528</v>
-      </c>
-      <c r="K5" t="n">
-        <v>16020</v>
-      </c>
+        <v>258530</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>1364</v>
+        <v>1767</v>
       </c>
       <c r="M5" t="n">
-        <v>19222</v>
+        <v>47017</v>
       </c>
       <c r="N5" t="n">
-        <v>14656</v>
+        <v>14679</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>828180</v>
+        <v>899297</v>
       </c>
       <c r="C6" t="n">
-        <v>160129</v>
+        <v>152939</v>
       </c>
       <c r="D6" t="n">
-        <v>441198</v>
-      </c>
-      <c r="E6" t="n">
-        <v>811102</v>
-      </c>
+        <v>334177</v>
+      </c>
+      <c r="E6" t="inlineStr"/>
       <c r="F6" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G6" t="n">
-        <v>54887</v>
-      </c>
-      <c r="H6" t="n">
-        <v>426</v>
-      </c>
+        <v>55473</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="n">
-        <v>249</v>
+        <v>230</v>
       </c>
       <c r="J6" t="n">
-        <v>133771</v>
-      </c>
-      <c r="K6" t="n">
-        <v>17078</v>
-      </c>
+        <v>279800</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>1576</v>
+        <v>2162</v>
       </c>
       <c r="M6" t="n">
-        <v>20425</v>
+        <v>56165</v>
       </c>
       <c r="N6" t="n">
-        <v>15502</v>
+        <v>17373</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>876419</v>
+        <v>892884</v>
       </c>
       <c r="C7" t="n">
-        <v>166134</v>
+        <v>143099</v>
       </c>
       <c r="D7" t="n">
-        <v>469145</v>
-      </c>
-      <c r="E7" t="n">
-        <v>860372</v>
-      </c>
-      <c r="F7" t="n">
-        <v>16</v>
-      </c>
+        <v>324478</v>
+      </c>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
       <c r="G7" t="n">
-        <v>57923</v>
-      </c>
-      <c r="H7" t="n">
-        <v>296</v>
-      </c>
+        <v>53383</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="n">
-        <v>308</v>
+        <v>154</v>
       </c>
       <c r="J7" t="n">
-        <v>145357</v>
-      </c>
-      <c r="K7" t="n">
-        <v>16047</v>
-      </c>
+        <v>293139</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>1436</v>
+        <v>1869</v>
       </c>
       <c r="M7" t="n">
-        <v>21193</v>
+        <v>58472</v>
       </c>
       <c r="N7" t="n">
-        <v>14611</v>
+        <v>17533</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>906936</v>
+        <v>842372</v>
       </c>
       <c r="C8" t="n">
-        <v>169069</v>
+        <v>130127</v>
       </c>
       <c r="D8" t="n">
-        <v>471468</v>
-      </c>
-      <c r="E8" t="n">
-        <v>891620</v>
-      </c>
+        <v>326972</v>
+      </c>
+      <c r="E8" t="inlineStr"/>
       <c r="F8" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="G8" t="n">
-        <v>64448</v>
-      </c>
-      <c r="H8" t="n">
-        <v>604</v>
-      </c>
+        <v>56990</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="n">
-        <v>301</v>
+        <v>200</v>
       </c>
       <c r="J8" t="n">
-        <v>161506</v>
-      </c>
-      <c r="K8" t="n">
-        <v>15316</v>
-      </c>
+        <v>259927</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>1485</v>
+        <v>1514</v>
       </c>
       <c r="M8" t="n">
-        <v>24211</v>
+        <v>54160</v>
       </c>
       <c r="N8" t="n">
-        <v>13831</v>
+        <v>11904</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>937284</v>
+        <v>1081545</v>
       </c>
       <c r="C9" t="n">
-        <v>172706</v>
+        <v>148890</v>
       </c>
       <c r="D9" t="n">
-        <v>477280</v>
-      </c>
-      <c r="E9" t="n">
-        <v>920766</v>
-      </c>
-      <c r="F9" t="n">
-        <v>12</v>
-      </c>
+        <v>335944</v>
+      </c>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
       <c r="G9" t="n">
-        <v>65753</v>
-      </c>
-      <c r="H9" t="n">
-        <v>742</v>
-      </c>
+        <v>125521</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="n">
-        <v>339</v>
+        <v>259</v>
       </c>
       <c r="J9" t="n">
-        <v>175638</v>
-      </c>
-      <c r="K9" t="n">
-        <v>16518</v>
-      </c>
+        <v>399980</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>1628</v>
+        <v>1196</v>
       </c>
       <c r="M9" t="n">
-        <v>28296</v>
+        <v>58946</v>
       </c>
       <c r="N9" t="n">
-        <v>14890</v>
+        <v>10613</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>970181</v>
+        <v>1056616</v>
       </c>
       <c r="C10" t="n">
-        <v>179185</v>
+        <v>157004</v>
       </c>
       <c r="D10" t="n">
-        <v>484927</v>
-      </c>
-      <c r="E10" t="n">
-        <v>952583</v>
-      </c>
-      <c r="F10" t="n">
-        <v>2</v>
-      </c>
+        <v>335402</v>
+      </c>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
       <c r="G10" t="n">
-        <v>62370</v>
-      </c>
-      <c r="H10" t="n">
-        <v>1712</v>
-      </c>
+        <v>93997</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="n">
-        <v>252</v>
+        <v>331</v>
       </c>
       <c r="J10" t="n">
-        <v>193979</v>
-      </c>
-      <c r="K10" t="n">
-        <v>17598</v>
-      </c>
+        <v>389681</v>
+      </c>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>1965</v>
+        <v>473</v>
       </c>
       <c r="M10" t="n">
-        <v>30156</v>
+        <v>74231</v>
       </c>
       <c r="N10" t="n">
-        <v>15633</v>
+        <v>5037</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>958364</v>
+        <v>1088490</v>
       </c>
       <c r="C11" t="n">
-        <v>191551</v>
+        <v>159223</v>
       </c>
       <c r="D11" t="n">
-        <v>438246</v>
-      </c>
-      <c r="E11" t="n">
-        <v>941091</v>
-      </c>
-      <c r="F11" t="n">
-        <v>3</v>
-      </c>
+        <v>357900</v>
+      </c>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
       <c r="G11" t="n">
-        <v>56115</v>
-      </c>
-      <c r="H11" t="n">
-        <v>1208</v>
-      </c>
-      <c r="I11" t="n">
-        <v>255</v>
-      </c>
+        <v>58116</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="n">
-        <v>217823</v>
-      </c>
-      <c r="K11" t="n">
-        <v>17273</v>
-      </c>
+        <v>409391</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>1885</v>
+        <v>4744</v>
       </c>
       <c r="M11" t="n">
-        <v>35890</v>
+        <v>94193</v>
       </c>
       <c r="N11" t="n">
-        <v>15388</v>
+        <v>2256</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>931494</v>
+        <v>770561</v>
       </c>
       <c r="C12" t="n">
-        <v>186683</v>
+        <v>107475</v>
       </c>
       <c r="D12" t="n">
-        <v>404584</v>
-      </c>
-      <c r="E12" t="n">
-        <v>916209</v>
-      </c>
+        <v>250325</v>
+      </c>
+      <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="n">
-        <v>57563</v>
-      </c>
-      <c r="H12" t="n">
-        <v>1045</v>
-      </c>
-      <c r="I12" t="n">
-        <v>234</v>
-      </c>
+        <v>34770</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="n">
-        <v>228568</v>
-      </c>
-      <c r="K12" t="n">
-        <v>15285</v>
-      </c>
+        <v>301372</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>1650</v>
+        <v>1010</v>
       </c>
       <c r="M12" t="n">
-        <v>37532</v>
+        <v>68033</v>
       </c>
       <c r="N12" t="n">
-        <v>13635</v>
+        <v>6665</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>923510</v>
+        <v>868445</v>
       </c>
       <c r="C13" t="n">
-        <v>186441</v>
+        <v>116446</v>
       </c>
       <c r="D13" t="n">
-        <v>394706</v>
-      </c>
-      <c r="E13" t="n">
-        <v>908756</v>
-      </c>
-      <c r="F13" t="n">
-        <v>3</v>
-      </c>
+        <v>240880</v>
+      </c>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
       <c r="G13" t="n">
-        <v>59004</v>
-      </c>
-      <c r="H13" t="n">
-        <v>930</v>
-      </c>
-      <c r="I13" t="n">
-        <v>234</v>
-      </c>
+        <v>42780</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="n">
-        <v>226834</v>
-      </c>
-      <c r="K13" t="n">
-        <v>14754</v>
-      </c>
+        <v>391226</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
-        <v>1652</v>
+        <v>1202</v>
       </c>
       <c r="M13" t="n">
-        <v>40604</v>
+        <v>66774</v>
       </c>
       <c r="N13" t="n">
-        <v>13102</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>986056</v>
-      </c>
-      <c r="C14" t="n">
-        <v>177052</v>
-      </c>
-      <c r="D14" t="n">
-        <v>422617</v>
-      </c>
-      <c r="E14" t="n">
-        <v>969905</v>
-      </c>
-      <c r="F14" t="n">
-        <v>1</v>
-      </c>
-      <c r="G14" t="n">
-        <v>56931</v>
-      </c>
-      <c r="H14" t="n">
-        <v>1105</v>
-      </c>
-      <c r="I14" t="n">
-        <v>276</v>
-      </c>
-      <c r="J14" t="n">
-        <v>252199</v>
-      </c>
-      <c r="K14" t="n">
-        <v>16151</v>
-      </c>
-      <c r="L14" t="n">
-        <v>1820</v>
-      </c>
-      <c r="M14" t="n">
-        <v>59724</v>
-      </c>
-      <c r="N14" t="n">
-        <v>14331</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>896403</v>
-      </c>
-      <c r="C15" t="n">
-        <v>161807</v>
-      </c>
-      <c r="D15" t="n">
-        <v>360344</v>
-      </c>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="n">
-        <v>6</v>
-      </c>
-      <c r="G15" t="n">
-        <v>51042</v>
-      </c>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="n">
-        <v>274</v>
-      </c>
-      <c r="J15" t="n">
-        <v>258530</v>
-      </c>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1767</v>
-      </c>
-      <c r="M15" t="n">
-        <v>47017</v>
-      </c>
-      <c r="N15" t="n">
-        <v>14679</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>899297</v>
-      </c>
-      <c r="C16" t="n">
-        <v>152939</v>
-      </c>
-      <c r="D16" t="n">
-        <v>334177</v>
-      </c>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="n">
-        <v>15</v>
-      </c>
-      <c r="G16" t="n">
-        <v>55473</v>
-      </c>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="n">
-        <v>230</v>
-      </c>
-      <c r="J16" t="n">
-        <v>279800</v>
-      </c>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>2162</v>
-      </c>
-      <c r="M16" t="n">
-        <v>56165</v>
-      </c>
-      <c r="N16" t="n">
-        <v>17373</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>892884</v>
-      </c>
-      <c r="C17" t="n">
-        <v>143099</v>
-      </c>
-      <c r="D17" t="n">
-        <v>324478</v>
-      </c>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="n">
-        <v>53383</v>
-      </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="n">
-        <v>154</v>
-      </c>
-      <c r="J17" t="n">
-        <v>293139</v>
-      </c>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1869</v>
-      </c>
-      <c r="M17" t="n">
-        <v>58472</v>
-      </c>
-      <c r="N17" t="n">
-        <v>17533</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>842372</v>
-      </c>
-      <c r="C18" t="n">
-        <v>130127</v>
-      </c>
-      <c r="D18" t="n">
-        <v>326972</v>
-      </c>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="n">
-        <v>2</v>
-      </c>
-      <c r="G18" t="n">
-        <v>56990</v>
-      </c>
-      <c r="H18" t="inlineStr"/>
-      <c r="I18" t="n">
-        <v>200</v>
-      </c>
-      <c r="J18" t="n">
-        <v>259927</v>
-      </c>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1514</v>
-      </c>
-      <c r="M18" t="n">
-        <v>54160</v>
-      </c>
-      <c r="N18" t="n">
-        <v>11904</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>1081545</v>
-      </c>
-      <c r="C19" t="n">
-        <v>148890</v>
-      </c>
-      <c r="D19" t="n">
-        <v>335944</v>
-      </c>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="n">
-        <v>125521</v>
-      </c>
-      <c r="H19" t="inlineStr"/>
-      <c r="I19" t="n">
-        <v>259</v>
-      </c>
-      <c r="J19" t="n">
-        <v>399980</v>
-      </c>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1196</v>
-      </c>
-      <c r="M19" t="n">
-        <v>58946</v>
-      </c>
-      <c r="N19" t="n">
-        <v>10613</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>1056616</v>
-      </c>
-      <c r="C20" t="n">
-        <v>157004</v>
-      </c>
-      <c r="D20" t="n">
-        <v>335402</v>
-      </c>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="n">
-        <v>93997</v>
-      </c>
-      <c r="H20" t="inlineStr"/>
-      <c r="I20" t="n">
-        <v>331</v>
-      </c>
-      <c r="J20" t="n">
-        <v>389681</v>
-      </c>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>473</v>
-      </c>
-      <c r="M20" t="n">
-        <v>74231</v>
-      </c>
-      <c r="N20" t="n">
-        <v>5037</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>1088490</v>
-      </c>
-      <c r="C21" t="n">
-        <v>159223</v>
-      </c>
-      <c r="D21" t="n">
-        <v>357900</v>
-      </c>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="n">
-        <v>58116</v>
-      </c>
-      <c r="H21" t="inlineStr"/>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="n">
-        <v>409391</v>
-      </c>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>4744</v>
-      </c>
-      <c r="M21" t="n">
-        <v>94193</v>
-      </c>
-      <c r="N21" t="n">
-        <v>2256</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>770561</v>
-      </c>
-      <c r="C22" t="n">
-        <v>107475</v>
-      </c>
-      <c r="D22" t="n">
-        <v>250325</v>
-      </c>
-      <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr"/>
-      <c r="G22" t="n">
-        <v>34770</v>
-      </c>
-      <c r="H22" t="inlineStr"/>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="n">
-        <v>301372</v>
-      </c>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1010</v>
-      </c>
-      <c r="M22" t="n">
-        <v>68033</v>
-      </c>
-      <c r="N22" t="n">
-        <v>6665</v>
+        <v>8205</v>
       </c>
     </row>
   </sheetData>
